--- a/samples/SA-عينة-منتجات-التجميل-preview.xlsx
+++ b/samples/SA-عينة-منتجات-التجميل-preview.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="244">
   <si>
     <t>name_en</t>
   </si>
@@ -61,178 +61,169 @@
     <t>images</t>
   </si>
   <si>
-    <t>WINKS LASHES SILKY 07</t>
-  </si>
-  <si>
-    <t>Blomdahl Earrings Brilliance Heart Hollow Crystal MP</t>
-  </si>
-  <si>
-    <t>Makeup RevolutionIconicPro216</t>
-  </si>
-  <si>
-    <t>Bourjois Rouge Velvet The Lipstick 09 Fuchsia Botté</t>
-  </si>
-  <si>
-    <t>Catrice Eye'Matic Dip Liner Deep Black 010</t>
-  </si>
-  <si>
-    <t>Maybelline Dream Matte Mousse SPF 15 Foundation 21 Nude 18 M</t>
-  </si>
-  <si>
-    <t>I Heart Light &amp; Glow Highlighter FQF01 11g</t>
-  </si>
-  <si>
-    <t>Enjoy Nail Polish Remover White 150ml</t>
-  </si>
-  <si>
-    <t>Rimmel Wonderswipe Shadow to Liner - 010 Cool AF</t>
-  </si>
-  <si>
-    <t>Maybelline Fit Me Matte Poreless 340-30ml</t>
-  </si>
-  <si>
-    <t>Bourjois Velvet The Pencil - Rose Story 07</t>
-  </si>
-  <si>
-    <t>Flormar NAIL ENAMEL 425</t>
-  </si>
-  <si>
-    <t>Max Factor Divine Lashes Rich Black Mascara</t>
-  </si>
-  <si>
-    <t>Caflon Fashion Earring Ball 1 Pair</t>
-  </si>
-  <si>
-    <t>Catrice Lip Sugar Scrub And Balm 010 Sugar Kiss</t>
-  </si>
-  <si>
-    <t>Topface Femme Alpha Nail Lacquer 11.3ml 103-058</t>
-  </si>
-  <si>
-    <t>ESSIE GEL COUTURE SITME INTHE FRONT ROW291 NAIL POLISH</t>
-  </si>
-  <si>
-    <t>Rimmel Magnifeyes Nude Edition Eyeshadow Palette 12Pan</t>
-  </si>
-  <si>
-    <t>Flormar MAT TOUCH FONDATION M305</t>
-  </si>
-  <si>
-    <t>Rimmel By This Way Restage Brow Pro Micro Definer 01</t>
-  </si>
-  <si>
-    <t>Bourjois Silk Edition 56 Bronze</t>
-  </si>
-  <si>
-    <t>Revlon Ultra HD Lip Color 625 HD Love 5.9ml</t>
-  </si>
-  <si>
-    <t>ESSIE COLOUR MERINO COOL 730 NAIL POLISH BOTTLE 13.5ml</t>
-  </si>
-  <si>
-    <t>Makeup Revolution Rose Gold Li</t>
-  </si>
-  <si>
-    <t>Makeup RevolutionRose GoldPriv</t>
-  </si>
-  <si>
-    <t>Max Factor Color Elixir Lipstick - 715 Ruby Tuesday</t>
-  </si>
-  <si>
-    <t>Catrice Hd Liquid Coverage Foundation 046</t>
-  </si>
-  <si>
-    <t>Beter Natural Fiber 2In1 Facial Brush Ref 22320</t>
-  </si>
-  <si>
-    <t>Laino In-Shower Make-Up Remover 150ml</t>
-  </si>
-  <si>
-    <t>Bourjois 31 Floribeige Mate Finsh Lip Glos 718701 7.7ml</t>
-  </si>
-  <si>
-    <t>وينكس رموش سيلكي07</t>
-  </si>
-  <si>
-    <t>بلومدال حلق طبى بريليانس قلب اجوف كريستال 10 مل</t>
-  </si>
-  <si>
-    <t>ميك أب ريفوليوشن 421</t>
-  </si>
-  <si>
-    <t>بورجوا روج فيلفيت ذا ليب ستيك 09 فوشيا بوت</t>
-  </si>
-  <si>
-    <t>قلم كحل اكثر سوادا 010</t>
-  </si>
-  <si>
-    <t>اى هيرت هاى لايتر FQF01 11G</t>
-  </si>
-  <si>
-    <t>مزيل طلاء الاظافر انجوي الأبيض 150مل</t>
-  </si>
-  <si>
-    <t>كحل سائل &amp; ظل عيون وندر سوايب 010</t>
-  </si>
-  <si>
-    <t>ميبيلين نيويورك كريم اساس 340</t>
+    <t>WINKS LASHES S...</t>
+  </si>
+  <si>
+    <t>Blomdahl Earri...</t>
+  </si>
+  <si>
+    <t>Makeup Revolut...</t>
+  </si>
+  <si>
+    <t>Bourjois Rouge...</t>
+  </si>
+  <si>
+    <t>Catrice Eye'Ma...</t>
+  </si>
+  <si>
+    <t>Maybelline Dre...</t>
+  </si>
+  <si>
+    <t>I Heart Light ...</t>
+  </si>
+  <si>
+    <t>Enjoy Nail Pol...</t>
+  </si>
+  <si>
+    <t>Rimmel Wonders...</t>
+  </si>
+  <si>
+    <t>Maybelline Fit...</t>
+  </si>
+  <si>
+    <t>Bourjois Velve...</t>
+  </si>
+  <si>
+    <t>Flormar NAIL E...</t>
+  </si>
+  <si>
+    <t>Max Factor Div...</t>
+  </si>
+  <si>
+    <t>Caflon Fashion...</t>
+  </si>
+  <si>
+    <t>Catrice Lip Su...</t>
+  </si>
+  <si>
+    <t>Topface Femme ...</t>
+  </si>
+  <si>
+    <t>ESSIE GEL COUT...</t>
+  </si>
+  <si>
+    <t>Rimmel Magnife...</t>
+  </si>
+  <si>
+    <t>Flormar MAT TO...</t>
+  </si>
+  <si>
+    <t>Rimmel By This...</t>
+  </si>
+  <si>
+    <t>Bourjois Silk ...</t>
+  </si>
+  <si>
+    <t>Revlon Ultra H...</t>
+  </si>
+  <si>
+    <t>ESSIE COLOUR M...</t>
+  </si>
+  <si>
+    <t>Max Factor Col...</t>
+  </si>
+  <si>
+    <t>Catrice Hd Liq...</t>
+  </si>
+  <si>
+    <t>Beter Natural ...</t>
+  </si>
+  <si>
+    <t>Laino In-Showe...</t>
+  </si>
+  <si>
+    <t>Bourjois 31 Fl...</t>
+  </si>
+  <si>
+    <t>وينكس رموش سيل...</t>
+  </si>
+  <si>
+    <t>بلومدال حلق طب...</t>
+  </si>
+  <si>
+    <t>ميك أب ريفوليو...</t>
+  </si>
+  <si>
+    <t>بورجوا روج فيل...</t>
+  </si>
+  <si>
+    <t>قلم كحل اكثر س...</t>
+  </si>
+  <si>
+    <t>اى هيرت هاى لا...</t>
+  </si>
+  <si>
+    <t>مزيل طلاء الاظ...</t>
+  </si>
+  <si>
+    <t>كحل سائل &amp; ظل ...</t>
+  </si>
+  <si>
+    <t>ميبيلين نيويور...</t>
   </si>
   <si>
     <t>روج قلم 07</t>
   </si>
   <si>
-    <t>مناكير فلورمار نايل انمل 425</t>
-  </si>
-  <si>
-    <t>ماسكارا ديفاين لاشز</t>
-  </si>
-  <si>
-    <t>كافلون حلق كروي دائري 1 زوج</t>
-  </si>
-  <si>
-    <t>مقشر الشفاه وبلسم السكر من كاتريس 010 شوقر كيس</t>
-  </si>
-  <si>
-    <t>103/058 طلاء الأظافر</t>
-  </si>
-  <si>
-    <t>ايسى تي إتش إي جبهة 291 طلاء الأظافر-3912</t>
-  </si>
-  <si>
-    <t>ريمل مكياج 132</t>
-  </si>
-  <si>
-    <t>فلورمار كريم أساس مطفى ام305</t>
-  </si>
-  <si>
-    <t>قلم حواجب رفيع أشقر</t>
-  </si>
-  <si>
-    <t>ايسى لون 730 طلاء الأظافر زجاجة 13.5ml- 3075</t>
-  </si>
-  <si>
-    <t>ميك أب ريفوليوشن 398</t>
-  </si>
-  <si>
-    <t>أرواج كلر اكسير 715</t>
-  </si>
-  <si>
-    <t>كريم اساس اتش دي 046</t>
-  </si>
-  <si>
-    <t>بيتر ناتشورال فرشاة الوجه 2 في 1 من الألياف الطبيعية</t>
-  </si>
-  <si>
-    <t>لينو مزيل مكياج أثناء الاستحمام</t>
-  </si>
-  <si>
-    <t>بورجوا 31 718701 7.7ml-3939</t>
+    <t>مناكير فلورمار...</t>
+  </si>
+  <si>
+    <t>ماسكارا ديفاين...</t>
+  </si>
+  <si>
+    <t>كافلون حلق كرو...</t>
+  </si>
+  <si>
+    <t>مقشر الشفاه وب...</t>
+  </si>
+  <si>
+    <t>103/058 طلاء ا...</t>
+  </si>
+  <si>
+    <t>ايسى تي إتش إي...</t>
+  </si>
+  <si>
+    <t>ريمل مكياج 132...</t>
+  </si>
+  <si>
+    <t>فلورمار كريم أ...</t>
+  </si>
+  <si>
+    <t>قلم حواجب رفيع...</t>
+  </si>
+  <si>
+    <t>ايسى لون 730 ط...</t>
+  </si>
+  <si>
+    <t>أرواج كلر اكسي...</t>
+  </si>
+  <si>
+    <t>كريم اساس اتش ...</t>
+  </si>
+  <si>
+    <t>بيتر ناتشورال ...</t>
+  </si>
+  <si>
+    <t>لينو مزيل مكيا...</t>
+  </si>
+  <si>
+    <t>بورجوا 31 7187...</t>
   </si>
   <si>
     <t>makeup</t>
   </si>
   <si>
-    <t>مستحضرات التجميل</t>
+    <t>مستحضرات التجم...</t>
   </si>
   <si>
     <t>WINKS</t>
@@ -241,7 +232,7 @@
     <t>BLOMDAHL</t>
   </si>
   <si>
-    <t>MAKEUP REVOLUTION</t>
+    <t>MAKEUP REVOLUT...</t>
   </si>
   <si>
     <t>BOURJOIS</t>
@@ -556,178 +547,26 @@
     <t>SAR 7.20</t>
   </si>
   <si>
-    <t>WINKS LASHES SILKY 07  Natural Eyelashes  Barcode  6900722029096</t>
-  </si>
-  <si>
-    <t>Blomdahl Earrings Brilliance Heart Hollow Crystal MP Earrings developed in consultation with skin specialists, in pure medical plastic with Swarovski crystals. Comfortable, light , and safe!. Blomdahl's Medical Plastic in unique with 0% NICKEL. Happy ears GUARANTEED! Nickel free earrings that are perfect for sensitive ears. Important: Do not clean medical plastic earrings with alcohol or peroxide. It can turn them yellow and brittle. Use a gentle soap and water for cleaning. Also, medical plastic earrings are more fragile than metal earrings, handle with care.Blomdahl Earrings is the best women earrings ever .  Barcode  7330981510643</t>
-  </si>
-  <si>
-    <t>Makeup RevolutionIconicPro216  Barcode  5029066043825</t>
-  </si>
-  <si>
-    <t>Bourjois Rouge Velvet The Lipstick 09 Fuchsia Botté Looking to wow with a bold matte lipstick that won’t smudge? Meet Bourjois Rouge Velvet The Lipstick, a gorgeous long-wearing lipstick that will never dry out lips! The secret of its exclusive formula is the moisturising complex that combines hydrating waxes with light oils and rich pigments for an irresistible velvety soft finish that pops. When you want a precise lipstick with intense matte colour that lasts long and feels light, just one swipe of Rouge Velvet The Lipstick will give your lips up to 24 hours of full-on glamour. For intense colour in one stroke with a precise and flawless finish, Rouge Edition Velvet The Lipstick is an essential addition to your make-up collection! Ready to play with make-up? In Paris, beauty is a game, never a chore. Bourjois makes it easy to create chic looks for eyes, lips, face and nails, all with an effortless Parisian twist. Say Bonjour to beauty with “joie de vivre”! Highlights Dark beige with yellow touch to fit every golden complexion. New high definition guided tear drop mechanism to bring perfect precision upon application. Intense and comfortable matte colour up to 24-hour hold It is the best product for lip care .  Barcode  3614224102982</t>
-  </si>
-  <si>
-    <t>Catrice Eye'Matic Dip Liner Deep Black 010  Barcode  4251232217735</t>
-  </si>
-  <si>
-    <t>Maybelline Dream Matte Mousse SPF 15 Foundation 21 Nude 18 M  Barcode  3600530169962</t>
-  </si>
-  <si>
-    <t>I Heart Light &amp; Glow Highlighter FQF01 11g  Barcode  5029066093837</t>
-  </si>
-  <si>
-    <t>Enjoy Nail Polish Remover White 150ml is a scented nail polish remover removes your nail polish in seconds. Enjoy no aseton is made with a formula infused with nourishing oils and its acetone free. This Nail Polish Remover is non harming on the nails and skin. Enjoy Nail Polish Remover is clinically tested.  Barcode  6253333300628</t>
-  </si>
-  <si>
-    <t>Rimmel Scandaleyes Wow Extreme Black  Barcode  3614227700529</t>
-  </si>
-  <si>
-    <t>Maybelline Fit Me Matte Poreless 340-30ml  Barcode  3600531583354</t>
-  </si>
-  <si>
-    <t>Bourjois Velvet The Pencil - Rose Story 07  Barcode  3614227208926</t>
-  </si>
-  <si>
-    <t>Flormar NAIL ENAMEL 425  Barcode  4251903300384</t>
-  </si>
-  <si>
-    <t>Max Factor Divine Lashes Rich Black Mascara  Barcode  3616301261902</t>
-  </si>
-  <si>
-    <t>Caflon Fashion Earring Ball fjbw3 1 Pair High quality fashion jewelry from CAFLON made in the U.K. suitable for daily use and does not cause allergy. The safer way to pierce your ears. Fashionable, desirable, and affordable. CAFLON EARRING features: CAFLON earrings are the high-quality U.K made studs. They are sterilized earrings for safe frequent use. Nickel safe. Suitable for sensitive skin. Hypoallergenic earrings. Surgical stainless steel studs. Every pair are sealed and sterilized in an individual package. It is the best women earrings ever .  Barcode  5060043722425</t>
-  </si>
-  <si>
-    <t>Catrice Lip Sugar Scrub And Balm 010 Sugar Kiss  Barcode  4059729032539</t>
-  </si>
-  <si>
-    <t>Topface Femme Alpha Nail Lacquer 11.3ml 103-058  Barcode  8681217211681</t>
-  </si>
-  <si>
-    <t>ESSIE GEL COUTURE SITME INTHE FRONT ROW291 NAIL POLISH  Barcode  884486303912</t>
-  </si>
-  <si>
-    <t>Rimmel Stay Matte Fire Starter Lip Colour No.500  Barcode  3614224525118</t>
-  </si>
-  <si>
-    <t>Flormar MAT TOUCH FONDATION M305  Barcode  8690604098293</t>
-  </si>
-  <si>
-    <t>Rimmel The Only 1 Matee High Flyer Lipstick No.610  Barcode  3614228396707</t>
-  </si>
-  <si>
-    <t>Bourjois Silk Edition 56 Bronze  Barcode  3052503685601</t>
-  </si>
-  <si>
-    <t>Revlon Ultra HD Lip Color 625 HD Love 5.9ml  Barcode  309978161103</t>
-  </si>
-  <si>
-    <t>Makeup Revolution Rose Gold Li  Barcode  5029066082008</t>
-  </si>
-  <si>
-    <t>Makeup RevolutionRose GoldPriv  Barcode  838623201081</t>
-  </si>
-  <si>
-    <t>Max Factor Color Elixir Lipstick - 715 Ruby Tuesday  Barcode  96021163</t>
-  </si>
-  <si>
-    <t>Catrice Hd Liquid Coverage Foundation 046  Barcode  4059729034465</t>
-  </si>
-  <si>
-    <t>Made from wheat fiber based material, recyclable and sustainable. Reducing to minimum the plastic presence. FSC certificate packaging paper.  Barcode  8412122223205</t>
-  </si>
-  <si>
-    <t>Laino In-Shower Make-Up Remover 150ml  Barcode  3518646027185</t>
-  </si>
-  <si>
-    <t>Bourjois 31 Floribeige Mate Finsh Lip Glos 718701 7.7ml  Barcode  3614224843939</t>
-  </si>
-  <si>
-    <t>وينكس رموش سيلكي07  رموش طبيعية  يوضع على طرف جفن العين بعد وضع غراء الرموش  سهل الاستخدام  الباركود  6900722029096</t>
-  </si>
-  <si>
-    <t>بلومدال حلق طبى بريليانس قلب اجوف كريستال 10 مل أقراط طبيه صديقه للجلد صنعت في السويد وصالحه للاستخدام اليومي و لا تسبب حساسيه . مميزات أقراط بلومدال : صممت بعناية عن طريق خبراء جلديه صممت لتسهل عملية التئام الجرح بعد تركيبها في الأذن وبالتالي من السهل الانتقال إلي الأقراط العادية بعد استعمالها لا يتفاعل مع البشرة لذلك لا يسبب حساسية صنعت في السويد بجودة عالية كل زوج منها مغلق بإحكام في عبوه منفصلة ومعقمة . حلق بلومدال يعتبر افضل حلق طبي للأذن علي الإطلاق .  الباركود  7330981510643</t>
-  </si>
-  <si>
-    <t>ميك أب ريفوليوشن 421  الباركود  5029066043825</t>
-  </si>
-  <si>
-    <t>بورجوا روج فيلفيت ذا ليب ستيك 09 فوشيا بوت هل تبحثين عن احمر شفاه مطفي لاطلالة متألقة لا تتلطخ؟ نقدم لك احمر شفاه روج فيلفيت من بورجوا، ساحر ويدوم طويلا ولن يتسبب في جفاف شفاتك! السر في تركيبته الحصرية هو مركب للترطيب يحتوي على شمع مرطب مع زيوت خفيفة وذرات لون غنية لمنحك اطلالة مخملية ناعمة لا تقاوم. عندما ترغبين في الحصول على احمر شفاه بلون مكثف مطفي، يدوم طويلا ويمنحك احساس بالخفة، فإن تمريره واحدة من روج فيلفيت سوف تمنح شفاتك اشراقة كاملة تدوم حتى 24 ساعة. احصلي على لون مكثف بلمسة واحدة مع نتيجة دقيقة وخالية من العيوب. اصدار روج فيلفيت ذا ليب ستيك هو اضافة اساسية لمجموعة مكياجك ارشادات الاستخدام: 1. ضعي اللون في منتصف الشفاه العلوية والسفلية. 2. ثم ضعي اللون من الزوايا الخارجية حتى منتصف الشفاه العلوية والسفلية. 3. خطوة اختيارية، للحصول على مزيد من اللمعان كلمسة اخيرة، يمكنك استخدام ملمع شفاه فوق احمر الشفاه. بورجوا روج فيلفت افضل روج علي الإطلاق .  الباركود  3614224102982</t>
-  </si>
-  <si>
-    <t>قلم كحل اكثر سوادا 010  الباركود  4251232217735</t>
-  </si>
-  <si>
-    <t>Maybelline Dream Matte Mousse SPF 15 Foundation 21 Nude 18 M  الباركود  3600530169962</t>
-  </si>
-  <si>
-    <t>اى هيرت هاى لايتر FQF01 11G  الباركود  5029066093837</t>
-  </si>
-  <si>
-    <t>مزيل طلاء الاظافر انجوي الأبيض 150مل هو مزيل طلاء اظافر معطر. يحتوي مزيل مناكير الاظافر على مستخرج زيت الذي يعمل على تغذية الاظافر ويحافظ عليها. ولأنه مزيل مناكير سائل فهو يُتيح تنظيف الاظافر من الطلاء خلال ثانية واحدة لكل اظفر. يتكون من تركيبة غنية بالمغذيات وخالية من الاسيتون المؤذي للأظافر والبشرة. تم اختبار مزيل طلاء الاظافر من قبل اطباء الجلدية  الباركود  6253333300628</t>
-  </si>
-  <si>
-    <t>كحل سائل &amp; ظل عيون وندر سوايب 010  الباركود  3614227700529</t>
-  </si>
-  <si>
-    <t>ميبيلين نيويورك كريم اساس 340  الباركود  3600531583354</t>
-  </si>
-  <si>
-    <t>روج قلم 07  الباركود  3614227208926</t>
-  </si>
-  <si>
-    <t>مناكير فلورمار نايل انمل 425  الباركود  4251903300384</t>
-  </si>
-  <si>
-    <t>ماسكارا ديفاين لاشز  الباركود  3616301261902</t>
-  </si>
-  <si>
-    <t>كافلون fjbw3 حلق كروي دائري 1 زوج هو حلَق طبي من انتاج شركة كافلون انجليزي الصنع مناسب للاستخدام اليومي ولا يُسبب الحساسية. الطريقة الآمنة لتزيين أذنيكي. أنيق، مرغوب فيه، وذو سعر مناسب مميزات أقراط كافلون: كافلون هي أقراط للآذان عالية الجودة بصناعة انجليزيه. أقراط مُعقَّمة للاستخدام اليومي المتكرر والآمن. خالية من معدن النيكل الذي يسبب التحسس. مثالية للجلد الحساس. أقراط لا تسبب التحسس. طرف مصنوع من الفولاذ المُقاوم للصدأ (ستانلس ستيل). كل زوج من حلق كافلون يتم تعقيمه وتغليفه فى عبوة منفصلة .حلق كافلون يعتبر افضل حلق أذن علي الإطلاق.  الباركود  5060043722425</t>
-  </si>
-  <si>
-    <t>مقشر الشفاه وبلسم السكر من كاتريس 010 شوقر كيس  الباركود  4059729032539</t>
-  </si>
-  <si>
-    <t>103/058 طلاء الأظافر  الباركود  8681217211681</t>
-  </si>
-  <si>
-    <t>ايسى تي إتش إي جبهة 291 طلاء الأظافر-3912  الباركود  884486303912</t>
-  </si>
-  <si>
-    <t>ريمل مكياج 132  الباركود  3614224525118</t>
-  </si>
-  <si>
-    <t>فلورمار كريم أساس مطفى ام305  الباركود  8690604098293</t>
-  </si>
-  <si>
-    <t>قلم حواجب رفيع أشقر  الباركود  3614228396707</t>
-  </si>
-  <si>
-    <t>Bourjois Silk Edition 56 Bronze  الباركود  3052503685601</t>
-  </si>
-  <si>
-    <t>Revlon Ultra HD Lip Color 625 HD Love 5.9ml  الباركود  309978161103</t>
-  </si>
-  <si>
-    <t>ميك أب ريفوليوشن 398  الباركود  5029066082008</t>
-  </si>
-  <si>
-    <t>Makeup RevolutionRose GoldPriv  الباركود  838623201081</t>
-  </si>
-  <si>
-    <t>أرواج كلر اكسير 715  الباركود  96021163</t>
-  </si>
-  <si>
-    <t>كريم اساس اتش دي 046  الباركود  4059729034465</t>
-  </si>
-  <si>
-    <t>فرشاة الوجه 2 في 1 من الألياف الطبيعية  فرشاة الوجه 2 في 1 من الألياف الطبيعية  مصنوعة من مادة أساسها ألياف القمح ، قابلة لإعادة التدوير ومستدامة. تم تقليل وجود البلاستيك إلى أدنى حد .  الباركود  8412122223205</t>
-  </si>
-  <si>
-    <t>لينو مزيل مكياج أثناء الاستحمام  الباركود  3518646027185</t>
-  </si>
-  <si>
-    <t>بورجوا 31 718701 7.7ml-3939  الباركود  3614224843939</t>
+    <t>Rimmel Scandal...</t>
+  </si>
+  <si>
+    <t>Rimmel Stay Ma...</t>
+  </si>
+  <si>
+    <t>Rimmel The Onl...</t>
+  </si>
+  <si>
+    <t>Made from whea...</t>
+  </si>
+  <si>
+    <t>روج قلم 07
+الب...</t>
+  </si>
+  <si>
+    <t>كافلون fjbw3 ح...</t>
+  </si>
+  <si>
+    <t>فرشاة الوجه 2 ...</t>
   </si>
   <si>
     <t>6900722029096</t>
@@ -817,94 +656,7 @@
     <t>3614224843939</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image2130.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image1562.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image3837.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4096.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4616.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4498.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4330.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image2614.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image3330.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image3891.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4025.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image2109.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image2822.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image2644.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image2493.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image1660.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4746.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image3346.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image2455.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image3344.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4021.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image3091.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4725.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image3825.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image3839.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image3636.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image4626.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image1722.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image2465.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/barmgaa/productsImages2/main/images/image3703.jpg</t>
+    <t>https://raw.gi...</t>
   </si>
   <si>
     <t>image2130.jpg</t>
@@ -1423,40 +1175,40 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J2" t="s">
-        <v>180</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="O2" t="s">
-        <v>297</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1464,40 +1216,40 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
         <v>71</v>
       </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J3" t="s">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="K3" t="s">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="L3" t="s">
-        <v>239</v>
+        <v>185</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="O3" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1505,43 +1257,43 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="O4" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1549,43 +1301,43 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J5" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>212</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="O5" t="s">
-        <v>300</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1593,43 +1345,43 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J6" t="s">
-        <v>184</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>213</v>
+        <v>47</v>
       </c>
       <c r="L6" t="s">
-        <v>242</v>
+        <v>188</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="O6" t="s">
-        <v>301</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1640,40 +1392,40 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J7" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="O7" t="s">
-        <v>302</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1681,43 +1433,43 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J8" t="s">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>273</v>
+        <v>213</v>
       </c>
       <c r="O8" t="s">
-        <v>303</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1725,40 +1477,40 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J9" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>216</v>
+        <v>49</v>
       </c>
       <c r="L9" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="O9" t="s">
-        <v>304</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1766,43 +1518,43 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J10" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="K10" t="s">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="O10" t="s">
-        <v>305</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1810,43 +1562,43 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J11" t="s">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>276</v>
+        <v>213</v>
       </c>
       <c r="O11" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1854,43 +1606,43 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J12" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="L12" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c r="O12" t="s">
-        <v>307</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1898,40 +1650,40 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J13" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
-        <v>220</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="O13" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1939,43 +1691,43 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="L14" t="s">
-        <v>250</v>
+        <v>196</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>279</v>
+        <v>213</v>
       </c>
       <c r="O14" t="s">
-        <v>309</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1983,40 +1735,40 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="K15" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s">
-        <v>251</v>
+        <v>197</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>280</v>
+        <v>213</v>
       </c>
       <c r="O15" t="s">
-        <v>310</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2024,40 +1776,40 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="K16" t="s">
-        <v>223</v>
+        <v>56</v>
       </c>
       <c r="L16" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="O16" t="s">
-        <v>311</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2065,40 +1817,40 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="K17" t="s">
-        <v>224</v>
+        <v>57</v>
       </c>
       <c r="L17" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>282</v>
+        <v>213</v>
       </c>
       <c r="O17" t="s">
-        <v>312</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2106,43 +1858,43 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>196</v>
+        <v>31</v>
       </c>
       <c r="K18" t="s">
-        <v>225</v>
+        <v>58</v>
       </c>
       <c r="L18" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="O18" t="s">
-        <v>313</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2150,43 +1902,43 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>226</v>
+        <v>59</v>
       </c>
       <c r="L19" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>284</v>
+        <v>213</v>
       </c>
       <c r="O19" t="s">
-        <v>314</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2194,40 +1946,40 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="K20" t="s">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="L20" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="O20" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2235,43 +1987,43 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="L21" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>286</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s">
-        <v>316</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2282,40 +2034,40 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J22" t="s">
-        <v>200</v>
+        <v>35</v>
       </c>
       <c r="K22" t="s">
-        <v>229</v>
+        <v>35</v>
       </c>
       <c r="L22" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>287</v>
+        <v>213</v>
       </c>
       <c r="O22" t="s">
-        <v>317</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2326,40 +2078,40 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H23" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J23" t="s">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>36</v>
       </c>
       <c r="L23" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="O23" t="s">
-        <v>318</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2367,342 +2119,342 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J24" t="s">
         <v>37</v>
       </c>
       <c r="K24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="O24" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
         <v>72</v>
       </c>
-      <c r="E25" t="s">
-        <v>75</v>
-      </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I25" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J25" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>231</v>
+        <v>45</v>
       </c>
       <c r="L25" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="O25" t="s">
-        <v>320</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
         <v>72</v>
       </c>
-      <c r="E26" t="s">
-        <v>75</v>
-      </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I26" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J26" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="K26" t="s">
-        <v>232</v>
+        <v>17</v>
       </c>
       <c r="L26" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>291</v>
+        <v>213</v>
       </c>
       <c r="O26" t="s">
-        <v>321</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="K27" t="s">
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="L27" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>292</v>
+        <v>213</v>
       </c>
       <c r="O27" t="s">
-        <v>322</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I28" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J28" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
       <c r="K28" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>293</v>
+        <v>213</v>
       </c>
       <c r="O28" t="s">
-        <v>323</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J29" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="K29" t="s">
-        <v>235</v>
+        <v>183</v>
       </c>
       <c r="L29" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>294</v>
+        <v>213</v>
       </c>
       <c r="O29" t="s">
-        <v>324</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J30" t="s">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="L30" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>295</v>
+        <v>213</v>
       </c>
       <c r="O30" t="s">
-        <v>325</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H31" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I31" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J31" t="s">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="K31" t="s">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="L31" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>296</v>
+        <v>213</v>
       </c>
       <c r="O31" t="s">
-        <v>326</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/samples/SA-عينة-منتجات-التجميل-preview.xlsx
+++ b/samples/SA-عينة-منتجات-التجميل-preview.xlsx
@@ -559,8 +559,7 @@
     <t>Made from whea...</t>
   </si>
   <si>
-    <t>روج قلم 07
-الب...</t>
+    <t>روج قلم 07 الب...</t>
   </si>
   <si>
     <t>كافلون fjbw3 ح...</t>
